--- a/五运六气/wylq_dataset.xlsx
+++ b/五运六气/wylq_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\五运六气\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{425B4640-A376-4162-874C-0982D720FCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63A53C63-F3A9-4C8D-B0C2-1718B603F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
+    <workbookView xWindow="-28920" yWindow="19680" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{686AF852-65C9-4422-8DEC-D9EA9F1262FB}"/>
   </bookViews>
   <sheets>
     <sheet name="天干" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="55">
   <si>
     <t>甲</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>配</t>
+  </si>
+  <si>
+    <t>阴阳</t>
+  </si>
+  <si>
+    <t>阳干</t>
+  </si>
+  <si>
+    <t>阴干</t>
+  </si>
+  <si>
+    <t>阳支</t>
+  </si>
+  <si>
+    <t>阴支</t>
   </si>
 </sst>
 </file>
@@ -370,7 +385,281 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -488,192 +777,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -691,37 +794,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:C11" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="24" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:D11" xr:uid="{0C2CF018-9ABD-4B7D-A7AA-EFCC9BE62B55}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4D2A3540-D2E1-46F4-879D-A42593F10454}" name="天干" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{88DAD465-9A0F-4BE0-9E94-B25944EC5389}" name="编号" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{1CD23E54-52C6-43A4-9561-818F030DDE55}" name="拼音" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{782EE33B-26D8-472E-B54B-8562F370FD1B}" name="阴阳" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:C13" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:C13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D13" xr:uid="{EA85FD60-AE36-47AB-82DB-7CCC2FF98E8B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5ACF60A3-55E5-443D-9B85-FBF492C102EB}" name="地支" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B4D4E2EC-9061-425B-80E2-24CC6EC398F1}" name="编号" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2D3B1A4C-AF83-4113-8F4C-68D255B748CA}" name="拼音" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7AE6E555-C2BC-4463-A96D-0B7BB9381F14}" name="阴阳" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:D61" xr:uid="{10AF0C43-A8DE-4216-87B2-8F0DB959B7C0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C626788C-4738-4319-A98D-2DB6A38B0113}" name="天干" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{75D140F1-126B-4859-A666-A9E617876826}" name="地支" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{3A3F57C1-FDA7-461C-B4B2-00BF5D86B8D3}" name="编号" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{10375F55-133E-4261-83D9-D2B4F80F5F42}" name="关系" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,134 +1149,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDE2BBF-DF23-4AD0-8979-518E21932F22}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900CECFB-E6AD-4A42-B847-940F5408A147}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1195,147 +1335,186 @@
     <col min="1" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="9">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAAA8BB-F7F3-4654-9E22-91E47B3B7703}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
